--- a/data/outputs/OR_altmetric/25.xlsx
+++ b/data/outputs/OR_altmetric/25.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE82"/>
+  <dimension ref="A1:CF82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1035,6 +1040,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1292,6 +1300,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1553,6 +1564,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1814,6 +1828,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2075,6 +2092,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2336,6 +2356,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2589,6 +2612,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2838,6 +2864,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3089,6 +3118,9 @@
         <v>0</v>
       </c>
       <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3336,6 +3368,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3581,6 +3616,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3830,6 +3868,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -4083,6 +4124,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4338,6 +4382,9 @@
         <v>0</v>
       </c>
       <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4585,6 +4632,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4836,6 +4886,9 @@
         <v>0</v>
       </c>
       <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5075,6 +5128,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5326,6 +5382,9 @@
         <v>0</v>
       </c>
       <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5573,6 +5632,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5834,6 +5896,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -6087,6 +6152,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6336,6 +6404,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6589,6 +6660,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6842,6 +6916,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -7095,6 +7172,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7348,6 +7428,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7601,6 +7684,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7854,6 +7940,9 @@
       <c r="CE29" t="n">
         <v>0</v>
       </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -8111,6 +8200,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8368,6 +8460,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8621,6 +8716,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8878,6 +8976,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -9131,6 +9232,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9384,6 +9488,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9637,6 +9744,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9884,6 +9994,9 @@
         <v>0</v>
       </c>
       <c r="CE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10127,6 +10240,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10376,6 +10492,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10637,6 +10756,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10886,6 +11008,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -11137,6 +11262,9 @@
         <v>0</v>
       </c>
       <c r="CE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11384,6 +11512,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11637,6 +11768,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11892,6 +12026,9 @@
         <v>0</v>
       </c>
       <c r="CE45" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12139,6 +12276,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12392,6 +12532,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12645,6 +12788,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12898,6 +13044,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -13149,6 +13298,9 @@
         <v>0</v>
       </c>
       <c r="CE50" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13392,6 +13544,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13641,6 +13796,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13890,6 +14048,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -14139,6 +14300,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14388,6 +14552,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14637,6 +14804,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14886,6 +15056,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -15139,6 +15312,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -15392,6 +15568,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15645,6 +15824,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15898,6 +16080,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -16155,6 +16340,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -16408,6 +16596,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16653,6 +16844,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -16902,6 +17096,9 @@
       <c r="CE65" t="n">
         <v>0</v>
       </c>
+      <c r="CF65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -17153,6 +17350,9 @@
         <v>0</v>
       </c>
       <c r="CE66" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17400,6 +17600,9 @@
       <c r="CE67" t="n">
         <v>0</v>
       </c>
+      <c r="CF67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -17647,6 +17850,9 @@
         <v>0</v>
       </c>
       <c r="CE68" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17894,6 +18100,9 @@
       <c r="CE69" t="n">
         <v>0</v>
       </c>
+      <c r="CF69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -18139,6 +18348,9 @@
       <c r="CE70" t="n">
         <v>0</v>
       </c>
+      <c r="CF70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -18384,6 +18596,9 @@
       <c r="CE71" t="n">
         <v>0</v>
       </c>
+      <c r="CF71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -18629,6 +18844,9 @@
       <c r="CE72" t="n">
         <v>0</v>
       </c>
+      <c r="CF72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -18882,6 +19100,9 @@
       <c r="CE73" t="n">
         <v>0</v>
       </c>
+      <c r="CF73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -19135,6 +19356,9 @@
       <c r="CE74" t="n">
         <v>0</v>
       </c>
+      <c r="CF74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -19392,6 +19616,9 @@
       <c r="CE75" t="n">
         <v>0</v>
       </c>
+      <c r="CF75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -19649,6 +19876,9 @@
       <c r="CE76" t="n">
         <v>0</v>
       </c>
+      <c r="CF76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -19910,6 +20140,9 @@
       <c r="CE77" t="n">
         <v>0</v>
       </c>
+      <c r="CF77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -20171,6 +20404,9 @@
       <c r="CE78" t="n">
         <v>0</v>
       </c>
+      <c r="CF78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -20424,6 +20660,9 @@
       <c r="CE79" t="n">
         <v>0</v>
       </c>
+      <c r="CF79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -20675,6 +20914,9 @@
         <v>0</v>
       </c>
       <c r="CE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20922,6 +21164,9 @@
       <c r="CE81" t="n">
         <v>0</v>
       </c>
+      <c r="CF81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -21175,6 +21420,9 @@
       <c r="CE82" t="n">
         <v>0</v>
       </c>
+      <c r="CF82" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
